--- a/medicine/Sexualité et sexologie/Sexcrimes_2/Sexcrimes_2.xlsx
+++ b/medicine/Sexualité et sexologie/Sexcrimes_2/Sexcrimes_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sexcrimes 2 ou Les Racoleuses 2 au Québec (Wild Things 2) est un film américain réalisé par Jack Perez (en), sorti en 2004.
 </t>
@@ -511,9 +523,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brittney Havers, une jeune lycéenne de dix-sept ans, compte bien hériter des millions de son beau-père fraîchement disparu. Quelle n'est pas sa surprise lorsqu'elle apprend que l'héritage ne lui est finalement pas destiné, mais qu'il ira à Maya, son ennemie de toujours, lycéenne elle aussi, qui se révèle être la fille biologique du papa richissime[1]…
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brittney Havers, une jeune lycéenne de dix-sept ans, compte bien hériter des millions de son beau-père fraîchement disparu. Quelle n'est pas sa surprise lorsqu'elle apprend que l'héritage ne lui est finalement pas destiné, mais qu'il ira à Maya, son ennemie de toujours, lycéenne elle aussi, qui se révèle être la fille biologique du papa richissime…
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Wild Things 2
 Titre français : Sexcrimes 2
@@ -583,7 +599,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Susan Ward (VF : Caroline Beaune ; VQ : Catherine Bonneau) : Brittney Havers
 Leila Arcieri (VF : Vanina Pradier ; VQ : Pascale Montreuil) : Maya King
@@ -601,7 +619,7 @@
 Kathy Neff : la mère de Brittney
 Ski Carr : Cicatriz
 Dorit Wolf : la fille qui lit dans le hall
-Source et légende : Version française (VF) sur Doublagissimo[2]</t>
+Source et légende : Version française (VF) sur Doublagissimo</t>
         </is>
       </c>
     </row>
@@ -629,7 +647,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le tournage s'est déroulé à Palm Beach.
 Ce film fait suite à Sexcrimes et suivi de Sexcrimes 3 et de Sexcrimes : Partie à 4.</t>
